--- a/Backend/python/faltantes.xlsx
+++ b/Backend/python/faltantes.xlsx
@@ -742,9 +742,7 @@
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
+      <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -1119,9 +1117,7 @@
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
+      <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
@@ -1133,9 +1129,7 @@
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
+      <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -1147,9 +1141,7 @@
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
+      <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -1389,9 +1381,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1403,9 +1393,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
+      <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1505,9 +1493,7 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" t="s">
-        <v>1</v>
-      </c>
+      <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
     </row>
@@ -1519,9 +1505,7 @@
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
+      <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
     </row>
@@ -1553,9 +1537,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
+      <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -2041,9 +2023,7 @@
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
+      <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
